--- a/Assets/DataFile/SongListData.xlsx
+++ b/Assets/DataFile/SongListData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmzm5\OneDrive\Documents\졸작\R55555LLING\Assets\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5EE598-4DB7-4367-B51C-70C3CF0C10FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114A9185-A5A6-4CE9-BD78-6D7FE721E10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C84FD16A-F3A1-4B91-A693-3F78EE3977FF}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D3" twoDigitTextYear="1"/>
+    <ignoredError sqref="D3:D4" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Assets/DataFile/SongListData.xlsx
+++ b/Assets/DataFile/SongListData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmzm5\OneDrive\Documents\졸작\R55555LLING\Assets\DataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114A9185-A5A6-4CE9-BD78-6D7FE721E10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E508FE-A5BA-43CC-8FE2-EE007DD22A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C84FD16A-F3A1-4B91-A693-3F78EE3977FF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ice vs Morimori Atsushi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5, 12, 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +93,95 @@
   </si>
   <si>
     <t>20.0, 45.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice vs モリモリあつし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REDALiCE vs USAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stronger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強STRONGER</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65.0, 95.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4, 7, 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fracture Ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakuzyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FractureRay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.0, 43.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 6, 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheriruth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Grimoire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grievous Lady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrievousLady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, 11, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 10, 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0, 38.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.0, 60.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +264,14 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -562,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D5F683-8C5B-48F4-A848-34604F6ACEAF}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -632,24 +725,105 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F4" xr:uid="{3A153D76-95C7-47B0-9473-3A1E52DB95A5}"/>
+  <autoFilter ref="A2:F8" xr:uid="{3A153D76-95C7-47B0-9473-3A1E52DB95A5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D3:D4" twoDigitTextYear="1"/>
+    <ignoredError sqref="D3:D5" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>